--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_4_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_4_26.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1827466.604347609</v>
+        <v>1902996.274012415</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.83780062</v>
       </c>
     </row>
     <row r="8">
@@ -656,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>303.8074765510483</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -710,22 +712,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>95.07046459880191</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -814,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -826,13 +828,13 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>129.0666178516128</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -859,10 +861,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -883,7 +885,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>86.11456485616236</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>216.5267245113899</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -911,10 +913,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,19 +943,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>246.3888645227375</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -1051,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>53.8010060880811</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1072,10 +1074,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>20.33297654915542</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,10 +1101,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1133,25 +1135,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>138.9486511426153</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1190,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>164.0754296999797</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1199,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,13 +1290,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1312,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,16 +1335,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>72.80566276230317</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1351,10 +1353,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>261.9025067912348</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1382,7 +1384,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H11" t="n">
         <v>305.2872491113177</v>
@@ -1421,7 +1423,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
         <v>251.078595249801</v>
@@ -1525,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>115.5269768002176</v>
+        <v>64.34190763938388</v>
       </c>
     </row>
     <row r="14">
@@ -1625,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1704,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,13 +1764,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>146.1854691670921</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1777,13 +1779,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>57.64843562452406</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1999,13 +2001,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2053,13 +2055,13 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>161.1706059301398</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2068,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>115.5269768002176</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274137</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2239,16 +2241,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2257,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,22 +2286,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>161.1706059301398</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>53.39647986240325</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2479,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>115.4284423947458</v>
       </c>
       <c r="H25" t="n">
-        <v>134.7660731567842</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2527,7 +2529,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2558,13 +2560,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.6830416206818</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G26" t="n">
         <v>411.9645167896915</v>
@@ -2710,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2725,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>116.3130092334066</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2764,22 +2766,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2950,7 +2952,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2962,13 +2964,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>70.9116246582891</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,25 +3000,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3029,7 +3031,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3047,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3235,13 +3237,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>203.8435192151918</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3275,7 +3277,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>411.9645167896915</v>
@@ -3284,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648052002</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -3436,7 +3438,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>15.59458547084338</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3469,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>73.66308659887159</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3521,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385038</v>
       </c>
       <c r="U38" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3600,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3679,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>115.5269768002178</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
@@ -3724,10 +3726,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>105.2861465028069</v>
       </c>
     </row>
     <row r="41">
@@ -3837,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3946,10 +3948,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>118.4898845065119</v>
+        <v>139.153727875004</v>
       </c>
       <c r="U43" t="n">
         <v>286.2373523985773</v>
@@ -3964,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3992,10 +3994,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H44" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,25 +4134,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.425271278902</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4183,25 +4185,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1902.75190621448</v>
+        <v>1937.315630222944</v>
       </c>
       <c r="C2" t="n">
-        <v>1595.875667274027</v>
+        <v>1568.353113282533</v>
       </c>
       <c r="D2" t="n">
-        <v>1595.875667274027</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="E2" t="n">
         <v>1210.087414675782</v>
@@ -4331,10 +4333,10 @@
         <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4358,22 +4360,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U2" t="n">
-        <v>2642.120401548716</v>
+        <v>2327.454962198756</v>
       </c>
       <c r="V2" t="n">
-        <v>2642.120401548716</v>
+        <v>2327.454962198756</v>
       </c>
       <c r="W2" t="n">
-        <v>2289.351746278601</v>
+        <v>2327.454962198756</v>
       </c>
       <c r="X2" t="n">
-        <v>2289.351746278601</v>
+        <v>2327.454962198756</v>
       </c>
       <c r="Y2" t="n">
-        <v>2289.351746278601</v>
+        <v>1937.315630222944</v>
       </c>
     </row>
     <row r="3">
@@ -4398,10 +4400,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4425,13 +4427,13 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4462,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>500.1394333084169</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>331.20325038051</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>331.20325038051</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>331.20325038051</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>184.3133028825996</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>184.3133028825996</v>
       </c>
       <c r="H4" t="n">
         <v>53.94298182036445</v>
@@ -4507,31 +4509,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>322.5758555962227</v>
+        <v>500.1394333084169</v>
       </c>
       <c r="Y4" t="n">
-        <v>235.5914466506042</v>
+        <v>500.1394333084169</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1470.569074795015</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="C5" t="n">
-        <v>1101.606557854603</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="D5" t="n">
-        <v>1101.606557854603</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E5" t="n">
-        <v>882.8926947117852</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4592,25 +4594,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2247.308246834948</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V5" t="n">
-        <v>2247.308246834948</v>
+        <v>2139.480975254749</v>
       </c>
       <c r="W5" t="n">
-        <v>2247.308246834948</v>
+        <v>2139.480975254749</v>
       </c>
       <c r="X5" t="n">
-        <v>2247.308246834948</v>
+        <v>2139.480975254749</v>
       </c>
       <c r="Y5" t="n">
-        <v>1857.168914859137</v>
+        <v>1749.341643278937</v>
       </c>
     </row>
     <row r="6">
@@ -4620,73 +4622,73 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>108.2874324143858</v>
+        <v>289.0740493317991</v>
       </c>
       <c r="C7" t="n">
-        <v>108.2874324143858</v>
+        <v>120.1378664038922</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>120.1378664038922</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>120.1378664038922</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>120.1378664038922</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>120.1378664038922</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>120.1378664038922</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>550.5654064942404</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>336.2769833124031</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T7" t="n">
-        <v>336.2769833124031</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U7" t="n">
-        <v>336.2769833124031</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V7" t="n">
-        <v>336.2769833124031</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W7" t="n">
-        <v>336.2769833124031</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X7" t="n">
-        <v>108.2874324143858</v>
+        <v>470.7225141620388</v>
       </c>
       <c r="Y7" t="n">
-        <v>108.2874324143858</v>
+        <v>470.7225141620388</v>
       </c>
     </row>
     <row r="8">
@@ -4778,43 +4780,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>962.9693282917581</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="C8" t="n">
-        <v>594.0068113513464</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="D8" t="n">
-        <v>594.0068113513464</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E8" t="n">
-        <v>208.2185587531022</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4829,25 +4831,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V8" t="n">
-        <v>2465.942913862886</v>
+        <v>2476.387644276009</v>
       </c>
       <c r="W8" t="n">
-        <v>2113.174258592771</v>
+        <v>2123.618989005894</v>
       </c>
       <c r="X8" t="n">
-        <v>1739.708500331692</v>
+        <v>1750.153230744814</v>
       </c>
       <c r="Y8" t="n">
-        <v>1349.56916835588</v>
+        <v>1750.153230744814</v>
       </c>
     </row>
     <row r="9">
@@ -4881,16 +4883,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641992</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598711</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4936,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>249.7161456655658</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>249.7161456655658</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>477.0243329969641</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>249.7161456655658</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>249.7161456655658</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064344</v>
+        <v>249.7161456655658</v>
       </c>
       <c r="W10" t="n">
-        <v>463.5809975486215</v>
+        <v>249.7161456655658</v>
       </c>
       <c r="X10" t="n">
-        <v>235.5914466506042</v>
+        <v>249.7161456655658</v>
       </c>
       <c r="Y10" t="n">
-        <v>235.5914466506042</v>
+        <v>249.7161456655658</v>
       </c>
     </row>
     <row r="11">
@@ -5015,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G11" t="n">
         <v>488.193237080547</v>
@@ -5039,10 +5041,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5075,16 +5077,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5118,28 +5120,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>485.5200852635878</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>1099.417155020476</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M12" t="n">
-        <v>1406.737288300438</v>
+        <v>1711.385417156675</v>
       </c>
       <c r="N12" t="n">
-        <v>1736.599915964471</v>
+        <v>2041.248044820708</v>
       </c>
       <c r="O12" t="n">
-        <v>2016.139981183168</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028584</v>
+        <v>1141.200876391121</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028584</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028584</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028584</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5221,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T13" t="n">
-        <v>1275.130855347408</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U13" t="n">
-        <v>986.0022165609664</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V13" t="n">
-        <v>731.3177283550796</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="W13" t="n">
-        <v>441.900558318119</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="X13" t="n">
-        <v>213.9110074201016</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="Y13" t="n">
-        <v>97.21709146028584</v>
+        <v>1322.84934122136</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5254,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5261,40 +5263,40 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5312,16 +5314,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5355,28 +5357,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>324.3840174432676</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="C16" t="n">
-        <v>155.4478345153607</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="D16" t="n">
-        <v>155.4478345153607</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="E16" t="n">
-        <v>155.4478345153607</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F16" t="n">
-        <v>155.4478345153607</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G16" t="n">
-        <v>155.4478345153607</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5458,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557902</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U16" t="n">
-        <v>1498.916270557902</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V16" t="n">
-        <v>1244.231782352015</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="W16" t="n">
-        <v>954.8146123150548</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="X16" t="n">
-        <v>726.8250614170374</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="Y16" t="n">
-        <v>506.0324822735073</v>
+        <v>675.0071030383442</v>
       </c>
     </row>
     <row r="17">
@@ -5504,22 +5506,22 @@
         <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822458</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J17" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
@@ -5534,7 +5536,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014292</v>
@@ -5595,25 +5597,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>659.3731057211721</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1039.489963795367</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N18" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,10 +5649,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>416.2699138005285</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
         <v>97.21709146028584</v>
@@ -5701,22 +5703,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U19" t="n">
-        <v>1498.916270557902</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V19" t="n">
-        <v>1336.117678709276</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W19" t="n">
-        <v>1046.700508672316</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X19" t="n">
-        <v>818.7109577742983</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y19" t="n">
-        <v>597.9183786307682</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5726,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D20" t="n">
         <v>1701.093169003441</v>
@@ -5738,64 +5740,64 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822469</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5826,7 +5828,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
         <v>263.5382936126482</v>
@@ -5838,19 +5840,19 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1503.408902298185</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
-        <v>1833.271529962218</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>2112.811595180915</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>416.2699138005285</v>
+        <v>3865.493026375033</v>
       </c>
       <c r="C22" t="n">
-        <v>247.3337308726216</v>
+        <v>3865.493026375033</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>3865.493026375033</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>3717.579932792639</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>3570.689985294729</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>3570.689985294729</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>3570.689985294729</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380586</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625198</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636327</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.00227840351</v>
       </c>
       <c r="N22" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431057</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436454</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042137</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>4749.779469576119</v>
       </c>
       <c r="S22" t="n">
-        <v>1336.117678709276</v>
+        <v>4549.859459491671</v>
       </c>
       <c r="T22" t="n">
-        <v>1336.117678709276</v>
+        <v>4549.859459491671</v>
       </c>
       <c r="U22" t="n">
-        <v>1336.117678709276</v>
+        <v>4495.923621246819</v>
       </c>
       <c r="V22" t="n">
-        <v>1336.117678709276</v>
+        <v>4495.923621246819</v>
       </c>
       <c r="W22" t="n">
-        <v>1046.700508672316</v>
+        <v>4495.923621246819</v>
       </c>
       <c r="X22" t="n">
-        <v>818.7109577742983</v>
+        <v>4267.934070348802</v>
       </c>
       <c r="Y22" t="n">
-        <v>597.9183786307682</v>
+        <v>4047.141491205272</v>
       </c>
     </row>
     <row r="23">
@@ -5966,28 +5968,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
         <v>889.2841917514083</v>
@@ -5996,22 +5998,22 @@
         <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
         <v>4726.561275231264</v>
@@ -6020,16 +6022,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614724</v>
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C24" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D24" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E24" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
-        <v>2500.819361250803</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>2911.709630095316</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>3158.47475800178</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>3465.794891281741</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
-        <v>3795.657518945774</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>4075.197584164471</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>4555.115143601278</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
-        <v>4850.224560916992</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S24" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T24" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U24" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V24" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W24" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X24" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y24" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="25">
@@ -6121,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>868.4856756861153</v>
+        <v>644.700260475621</v>
       </c>
       <c r="C25" t="n">
-        <v>699.5494927582084</v>
+        <v>475.7640775477141</v>
       </c>
       <c r="D25" t="n">
-        <v>549.4328533458727</v>
+        <v>475.7640775477141</v>
       </c>
       <c r="E25" t="n">
-        <v>401.5197597634796</v>
+        <v>475.7640775477141</v>
       </c>
       <c r="F25" t="n">
-        <v>401.5197597634796</v>
+        <v>475.7640775477141</v>
       </c>
       <c r="G25" t="n">
-        <v>233.3444380833002</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6175,22 +6177,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U25" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V25" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="W25" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="X25" t="n">
-        <v>1270.926719659885</v>
+        <v>1047.141304449391</v>
       </c>
       <c r="Y25" t="n">
-        <v>1050.134140516355</v>
+        <v>826.3487253058607</v>
       </c>
     </row>
     <row r="26">
@@ -6203,10 +6205,10 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
@@ -6221,19 +6223,19 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823786</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
         <v>3183.709822619127</v>
@@ -6242,31 +6244,31 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3224.712326690732</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C27" t="n">
-        <v>3050.259297409605</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D27" t="n">
-        <v>2901.324887748354</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E27" t="n">
-        <v>2742.087432742898</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>2595.552874769783</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
-        <v>2458.626196373968</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>2362.681322805656</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>2334.49815909844</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>2500.819361250802</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>2911.709630095315</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>3158.474758001779</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>3465.794891281741</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
-        <v>3795.657518945773</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>4075.19758416447</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>4555.115143601277</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
-        <v>4850.224560916991</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
-        <v>4860.854573014291</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S27" t="n">
-        <v>4720.948468098066</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T27" t="n">
-        <v>4526.033852021844</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U27" t="n">
-        <v>4297.928927641231</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V27" t="n">
-        <v>4062.776819409488</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W27" t="n">
-        <v>3808.539462681287</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X27" t="n">
-        <v>3600.687962475754</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y27" t="n">
-        <v>3392.9276637108</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="28">
@@ -6358,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>383.6411625027449</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>214.704979574838</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>214.704979574838</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>214.704979574838</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>214.704979574838</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6403,31 +6405,31 @@
         <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557899</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557899</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473451</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1075.210845262957</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U28" t="n">
-        <v>786.0822064765148</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V28" t="n">
-        <v>786.0822064765148</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W28" t="n">
-        <v>786.0822064765148</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>786.0822064765148</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y28" t="n">
-        <v>565.2896273329847</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6437,7 +6439,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
@@ -6446,16 +6448,16 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
@@ -6470,7 +6472,7 @@
         <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
         <v>3183.709822619127</v>
@@ -6497,16 +6499,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6595,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>599.7337779135435</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>430.7975949856366</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>430.7975949856366</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>430.7975949856366</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>430.7975949856366</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028584</v>
@@ -6646,25 +6648,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T31" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U31" t="n">
-        <v>1075.21084526296</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V31" t="n">
-        <v>820.5263570570736</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W31" t="n">
-        <v>820.5263570570736</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
-        <v>820.5263570570736</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y31" t="n">
-        <v>599.7337779135435</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6683,34 +6685,34 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
@@ -6786,7 +6788,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
         <v>1558.376451307619</v>
@@ -6883,10 +6885,10 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T34" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U34" t="n">
         <v>869.3083006011506</v>
@@ -6911,55 +6913,55 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155889</v>
       </c>
       <c r="G35" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
@@ -6971,16 +6973,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -6990,16 +6992,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>987.4312590525782</v>
+        <v>987.4312590525784</v>
       </c>
       <c r="C36" t="n">
-        <v>812.9782297714512</v>
+        <v>812.9782297714514</v>
       </c>
       <c r="D36" t="n">
-        <v>664.0438201101999</v>
+        <v>664.0438201102002</v>
       </c>
       <c r="E36" t="n">
-        <v>504.8063651047445</v>
+        <v>504.8063651047446</v>
       </c>
       <c r="F36" t="n">
         <v>358.2718071316295</v>
@@ -7011,7 +7013,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J36" t="n">
         <v>263.5382936126482</v>
@@ -7023,7 +7025,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
         <v>1558.376451307619</v>
@@ -7050,7 +7052,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V36" t="n">
-        <v>1825.495751771334</v>
+        <v>1825.495751771335</v>
       </c>
       <c r="W36" t="n">
         <v>1571.258395043133</v>
@@ -7069,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>711.072954880832</v>
+        <v>726.8250614170374</v>
       </c>
       <c r="C37" t="n">
-        <v>542.1367719529251</v>
+        <v>557.8888784891305</v>
       </c>
       <c r="D37" t="n">
-        <v>392.0201325405893</v>
+        <v>407.7722390767948</v>
       </c>
       <c r="E37" t="n">
-        <v>244.1070389581962</v>
+        <v>259.8591454944017</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028584</v>
+        <v>112.9691979964913</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7117,28 +7119,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>1113.513998854602</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U37" t="n">
-        <v>1113.513998854602</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V37" t="n">
-        <v>1113.513998854602</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W37" t="n">
-        <v>1113.513998854602</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X37" t="n">
-        <v>1113.513998854602</v>
+        <v>726.8250614170374</v>
       </c>
       <c r="Y37" t="n">
-        <v>892.7214197110717</v>
+        <v>726.8250614170374</v>
       </c>
     </row>
     <row r="38">
@@ -7157,49 +7159,49 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155889</v>
       </c>
       <c r="G38" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
@@ -7227,16 +7229,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>987.4312590525782</v>
+        <v>987.4312590525784</v>
       </c>
       <c r="C39" t="n">
-        <v>812.9782297714512</v>
+        <v>812.9782297714514</v>
       </c>
       <c r="D39" t="n">
-        <v>664.0438201101999</v>
+        <v>664.0438201102002</v>
       </c>
       <c r="E39" t="n">
-        <v>504.8063651047445</v>
+        <v>504.8063651047446</v>
       </c>
       <c r="F39" t="n">
         <v>358.2718071316295</v>
@@ -7248,7 +7250,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J39" t="n">
         <v>263.5382936126482</v>
@@ -7260,7 +7262,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
         <v>1558.376451307619</v>
@@ -7287,7 +7289,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V39" t="n">
-        <v>1825.495751771334</v>
+        <v>1825.495751771335</v>
       </c>
       <c r="W39" t="n">
         <v>1571.258395043133</v>
@@ -7306,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028584</v>
+        <v>377.6878657662453</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7357,25 +7359,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1382.222354598086</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>1158.436939387592</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U40" t="n">
-        <v>869.3083006011506</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V40" t="n">
-        <v>614.6238123952637</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W40" t="n">
-        <v>325.2066423583032</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X40" t="n">
-        <v>97.21709146028584</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028584</v>
+        <v>559.336330596485</v>
       </c>
     </row>
     <row r="41">
@@ -7385,34 +7387,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823788</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795207</v>
@@ -7424,37 +7426,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7485,31 +7487,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>1595.645765494011</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P42" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,40 +7545,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J43" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K43" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7585,34 +7587,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>1379.229518531123</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U43" t="n">
-        <v>1090.100879744681</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V43" t="n">
-        <v>835.416391538794</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W43" t="n">
-        <v>545.9992215018333</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X43" t="n">
-        <v>318.0096706038159</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
     </row>
     <row r="44">
@@ -7628,28 +7630,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795207</v>
@@ -7658,7 +7660,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
@@ -7667,7 +7669,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
@@ -7725,28 +7727,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>287.7778528277033</v>
+        <v>488.2756279992598</v>
       </c>
       <c r="L45" t="n">
-        <v>534.5429807341674</v>
+        <v>735.0407559057238</v>
       </c>
       <c r="M45" t="n">
-        <v>1247.466478653857</v>
+        <v>1503.408902298185</v>
       </c>
       <c r="N45" t="n">
-        <v>2051.878056918008</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O45" t="n">
-        <v>2331.418122136705</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P45" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1029.666285013068</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>860.7301020851612</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>710.6134626728254</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>562.7003690904323</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
         <v>97.21709146028584</v>
@@ -7831,25 +7833,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U46" t="n">
-        <v>1275.130855347408</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V46" t="n">
-        <v>1275.130855347408</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W46" t="n">
-        <v>1275.130855347408</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>1275.130855347408</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>1054.338276203878</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8073,10 +8075,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415596</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8304,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8313,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951776</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>221.0467526719081</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8541,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8766,16 +8768,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>199.7396287231157</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>116.9087390531963</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8784,13 +8786,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9003,31 +9005,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9243,28 +9245,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>73.53204524670076</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9422,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9486,7 +9488,7 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>277.6717966208068</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -9495,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9644,7 +9646,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N23" t="n">
         <v>437.3469244119842</v>
@@ -9732,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>277.6717966208058</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9969,7 +9971,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>277.6717966208058</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10443,7 +10445,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>277.6717966208064</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10607,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298479</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10680,7 +10682,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>277.6717966208064</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10844,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298479</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10917,7 +10919,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>277.6717966208064</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11081,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11142,25 +11144,25 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>127.6461250100645</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>277.6717966208064</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11318,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,19 +11375,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>76.43196988338559</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>409.700368322958</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -11394,10 +11396,10 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>103.0576765518772</v>
+        <v>154.2427457127109</v>
       </c>
     </row>
     <row r="14">
@@ -23650,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>2.43000385112029</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23665,13 +23667,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>91.26539274301206</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23887,13 +23889,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23941,13 +23943,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>90.9670373936882</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23956,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>103.0576765518772</v>
       </c>
     </row>
     <row r="20">
@@ -24127,16 +24129,16 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
@@ -24145,7 +24147,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,22 +24174,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>36.75020405346345</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>232.8408725361741</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24367,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>51.06512606863178</v>
       </c>
       <c r="H25" t="n">
-        <v>14.14775521075197</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24415,7 +24417,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -24598,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24613,7 +24615,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>50.18055922997094</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
@@ -24652,22 +24654,22 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24838,7 +24840,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24850,13 +24852,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>95.58194380508849</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,25 +24888,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25123,13 +25125,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>82.39383318338557</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25309,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25324,7 +25326,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>150.8989829925342</v>
       </c>
       <c r="H37" t="n">
         <v>148.9138283675361</v>
@@ -25357,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>147.8844744595177</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25546,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25567,7 +25569,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,10 +25599,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>82.39383318338545</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25612,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>113.2985068492879</v>
       </c>
     </row>
     <row r="41">
@@ -25834,10 +25836,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>103.0576765518774</v>
+        <v>82.39383318338525</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25852,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26020,25 +26022,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>155.4067089030353</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
         <v>110.419245464272</v>
@@ -26071,25 +26073,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>888779.6832846863</v>
+        <v>888779.6832846864</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>888779.6832846862</v>
+        <v>888779.6832846864</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>888779.6832846863</v>
+        <v>888779.6832846864</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>888779.6832846862</v>
+        <v>888779.6832846864</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>888779.6832846861</v>
+        <v>888779.6832846863</v>
       </c>
     </row>
     <row r="11">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>888779.6832846863</v>
+        <v>888779.6832846862</v>
       </c>
     </row>
     <row r="16">
@@ -26311,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>533677.1504117843</v>
+        <v>533677.1504117841</v>
       </c>
       <c r="C2" t="n">
-        <v>533677.1504117843</v>
+        <v>533677.1504117848</v>
       </c>
       <c r="D2" t="n">
-        <v>533677.1504117848</v>
+        <v>533677.1504117845</v>
       </c>
       <c r="E2" t="n">
+        <v>508337.7776590216</v>
+      </c>
+      <c r="F2" t="n">
+        <v>508337.7776590215</v>
+      </c>
+      <c r="G2" t="n">
+        <v>508337.7776590216</v>
+      </c>
+      <c r="H2" t="n">
+        <v>508337.7776590217</v>
+      </c>
+      <c r="I2" t="n">
+        <v>508337.7776590215</v>
+      </c>
+      <c r="J2" t="n">
+        <v>508337.7776590217</v>
+      </c>
+      <c r="K2" t="n">
+        <v>508337.7776590216</v>
+      </c>
+      <c r="L2" t="n">
+        <v>508337.7776590216</v>
+      </c>
+      <c r="M2" t="n">
         <v>508337.7776590218</v>
-      </c>
-      <c r="F2" t="n">
-        <v>508337.7776590216</v>
-      </c>
-      <c r="G2" t="n">
-        <v>508337.7776590217</v>
-      </c>
-      <c r="H2" t="n">
-        <v>508337.7776590216</v>
-      </c>
-      <c r="I2" t="n">
-        <v>508337.7776590217</v>
-      </c>
-      <c r="J2" t="n">
-        <v>508337.7776590215</v>
-      </c>
-      <c r="K2" t="n">
-        <v>508337.7776590215</v>
-      </c>
-      <c r="L2" t="n">
-        <v>508337.7776590217</v>
-      </c>
-      <c r="M2" t="n">
-        <v>508337.7776590216</v>
       </c>
       <c r="N2" t="n">
         <v>508337.7776590217</v>
       </c>
       <c r="O2" t="n">
-        <v>508337.7776590216</v>
+        <v>508337.7776590215</v>
       </c>
       <c r="P2" t="n">
         <v>508337.7776590216</v>
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26396,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338373</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.540129233035259e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26433,10 +26435,10 @@
         <v>29303.54555230233</v>
       </c>
       <c r="H4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230234</v>
       </c>
       <c r="I4" t="n">
-        <v>29303.54555230232</v>
+        <v>29303.54555230234</v>
       </c>
       <c r="J4" t="n">
         <v>29303.54555230233</v>
@@ -26448,16 +26450,16 @@
         <v>29303.54555230233</v>
       </c>
       <c r="M4" t="n">
-        <v>29303.54555230232</v>
+        <v>29303.54555230235</v>
       </c>
       <c r="N4" t="n">
-        <v>29303.54555230232</v>
+        <v>29303.54555230235</v>
       </c>
       <c r="O4" t="n">
-        <v>29303.54555230232</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="P4" t="n">
-        <v>29303.54555230232</v>
+        <v>29303.54555230233</v>
       </c>
     </row>
     <row r="5">
@@ -26479,37 +26481,37 @@
         <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="I5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="J5" t="n">
         <v>91987.32594871662</v>
-      </c>
-      <c r="I5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="J5" t="n">
-        <v>91987.32594871661</v>
       </c>
       <c r="K5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-313640.5841879958</v>
+        <v>-313640.584187996</v>
       </c>
       <c r="C6" t="n">
-        <v>276327.2950265487</v>
+        <v>276327.2950265491</v>
       </c>
       <c r="D6" t="n">
-        <v>276327.2950265491</v>
+        <v>276327.2950265489</v>
       </c>
       <c r="E6" t="n">
-        <v>-138113.1303188932</v>
+        <v>-138113.1303188935</v>
       </c>
       <c r="F6" t="n">
         <v>387046.9061580026</v>
       </c>
       <c r="G6" t="n">
-        <v>387046.9061580027</v>
+        <v>387046.9061580026</v>
       </c>
       <c r="H6" t="n">
         <v>387046.9061580027</v>
       </c>
       <c r="I6" t="n">
-        <v>387046.9061580027</v>
+        <v>387046.9061580026</v>
       </c>
       <c r="J6" t="n">
-        <v>210623.6869654097</v>
+        <v>210623.68696541</v>
       </c>
       <c r="K6" t="n">
         <v>387046.9061580026</v>
       </c>
       <c r="L6" t="n">
+        <v>387046.9061580026</v>
+      </c>
+      <c r="M6" t="n">
+        <v>252245.8909241655</v>
+      </c>
+      <c r="N6" t="n">
         <v>387046.9061580027</v>
       </c>
-      <c r="M6" t="n">
-        <v>252245.8909241654</v>
-      </c>
-      <c r="N6" t="n">
+      <c r="O6" t="n">
+        <v>387046.9061580023</v>
+      </c>
+      <c r="P6" t="n">
         <v>387046.9061580028</v>
-      </c>
-      <c r="O6" t="n">
-        <v>387046.9061580026</v>
-      </c>
-      <c r="P6" t="n">
-        <v>387046.9061580027</v>
       </c>
     </row>
   </sheetData>
@@ -26738,16 +26740,16 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541002</v>
@@ -26765,19 +26767,19 @@
         <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26820,13 +26822,13 @@
         <v>1215.213643253573</v>
       </c>
       <c r="M4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="N4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="O4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="P4" t="n">
         <v>1215.213643253573</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370135</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26996,7 +26998,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545553</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>61.46541521995925</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27430,22 +27432,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>156.1537029094874</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27546,13 +27548,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>27.10427099018233</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
@@ -27579,10 +27581,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27603,7 +27605,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>132.4700884959324</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>165.4036455608718</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27631,10 +27633,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,16 +27666,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>81.36339394739744</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27771,13 +27773,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>94.81446693013126</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27792,10 +27794,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>114.6326452431828</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,10 +27821,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27853,25 +27855,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>267.9273945990961</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -27910,7 +27912,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>163.6768287701552</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27919,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,13 +28010,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28032,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,16 +28055,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>139.3398761877157</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -28071,10 +28073,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>24.62049154535623</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -31282,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31519,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31987,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32007,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32016,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32025,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,7 +32077,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32084,10 +32086,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32102,10 +32104,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32168,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -33409,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34123,7 +34125,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I41" t="n">
         <v>128.6967545176652</v>
@@ -34132,31 +34134,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P41" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34205,31 +34207,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J42" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
@@ -34284,7 +34286,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34296,7 +34298,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N43" t="n">
         <v>229.1447054263751</v>
@@ -34308,19 +34310,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34454,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34472,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34793,10 +34795,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,10 +35251,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
-        <v>214.4070918624593</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35261,13 +35263,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35486,16 +35488,16 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>350.3150673110549</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>427.3331161036625</v>
       </c>
       <c r="N12" t="n">
         <v>333.1945733980128</v>
@@ -35504,13 +35506,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
         <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35647,13 +35649,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35819,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35963,28 +35965,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>383.956422297167</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36142,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36206,7 +36208,7 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>588.096173671273</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
         <v>333.1945733980128</v>
@@ -36215,13 +36217,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36364,7 +36366,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36452,13 +36454,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>484.7652115523304</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36689,7 +36691,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>484.7652115523304</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36771,7 +36773,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187098</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -37069,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37154,22 +37156,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>484.7652115523311</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37239,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970350042</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37391,22 +37393,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>484.7652115523311</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37476,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37543,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970350042</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37628,22 +37630,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>484.7652115523311</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37713,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37783,25 +37785,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,28 +37861,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>460.8406984080775</v>
       </c>
       <c r="O42" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>484.7652115523311</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,19 +37937,19 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K43" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M43" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O43" t="n">
         <v>236.2373515206029</v>
@@ -37956,7 +37958,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,13 +38019,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38038,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38095,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>227.0074084713248</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>720.1247453734243</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38187,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_4_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_4_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1902996.274012415</v>
+        <v>1895979.259120704</v>
       </c>
     </row>
     <row r="7">
@@ -661,13 +661,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>2.608692535667753</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -679,7 +679,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -715,19 +715,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>95.07046459880191</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -819,22 +819,22 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>59.66385641544537</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>129.0666178516128</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -895,25 +895,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>170.3298752413689</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -943,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -955,7 +955,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>246.3888645227375</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -1053,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1065,19 +1065,19 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>20.33297654915542</v>
+        <v>102.5756487563991</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1113,13 +1113,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1141,7 +1141,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1153,7 +1153,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>83.06748266394136</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1189,19 +1189,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>164.0754296999797</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1293,19 +1293,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>59.66385641544537</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,16 +1335,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>72.80566276230317</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1384,13 +1384,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1426,7 +1426,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952497999</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>115.5269768002174</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>64.34190763938388</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1770,22 +1770,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>146.1854691670921</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>24.32276211751082</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
@@ -1827,10 +1827,10 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>5.107731335945625</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>115.5269768002176</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2247,10 +2247,10 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2259,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>53.39647986240325</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2481,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>115.4284423947458</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2529,22 +2529,22 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>147.1163355383938</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2566,7 +2566,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>411.9645167896915</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2763,10 +2763,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T28" t="n">
-        <v>139.1537278750038</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2958,13 +2958,13 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>18.67952670034493</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3186,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>164.3675597136119</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3237,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>115.5269768002178</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
@@ -3252,10 +3252,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3277,7 +3277,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G35" t="n">
         <v>411.9645167896915</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648052002</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3426,25 +3426,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>15.59458547084338</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>82.35845141792571</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3489,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3556,7 +3556,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
-        <v>208.4827883385038</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
         <v>251.078595249801</v>
@@ -3660,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3681,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
@@ -3726,10 +3726,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>105.2861465028069</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3903,7 +3903,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>118.4898845065121</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3948,10 +3948,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>139.153727875004</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.2373523985773</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>58.40168825977442</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>203.8435192151918</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1937.315630222944</v>
+        <v>1366.188433646014</v>
       </c>
       <c r="C2" t="n">
-        <v>1568.353113282533</v>
+        <v>1366.188433646014</v>
       </c>
       <c r="D2" t="n">
-        <v>1210.087414675782</v>
+        <v>1366.188433646014</v>
       </c>
       <c r="E2" t="n">
-        <v>1210.087414675782</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F2" t="n">
-        <v>799.1015098861748</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4333,10 +4333,10 @@
         <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4363,19 +4363,19 @@
         <v>2423.485734520778</v>
       </c>
       <c r="U2" t="n">
-        <v>2327.454962198756</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V2" t="n">
-        <v>2327.454962198756</v>
+        <v>2092.422847177208</v>
       </c>
       <c r="W2" t="n">
-        <v>2327.454962198756</v>
+        <v>1739.654191907093</v>
       </c>
       <c r="X2" t="n">
-        <v>2327.454962198756</v>
+        <v>1366.188433646014</v>
       </c>
       <c r="Y2" t="n">
-        <v>1937.315630222944</v>
+        <v>1366.188433646014</v>
       </c>
     </row>
     <row r="3">
@@ -4427,7 +4427,7 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>500.1394333084169</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C4" t="n">
-        <v>331.20325038051</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D4" t="n">
-        <v>331.20325038051</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E4" t="n">
-        <v>331.20325038051</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F4" t="n">
-        <v>184.3133028825996</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G4" t="n">
-        <v>184.3133028825996</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
         <v>53.94298182036445</v>
@@ -4530,10 +4530,10 @@
         <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>500.1394333084169</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>500.1394333084169</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1749.341643278937</v>
+        <v>1159.40775858698</v>
       </c>
       <c r="C5" t="n">
-        <v>1749.341643278937</v>
+        <v>790.4452416465681</v>
       </c>
       <c r="D5" t="n">
-        <v>1749.341643278937</v>
+        <v>790.4452416465681</v>
       </c>
       <c r="E5" t="n">
-        <v>1363.553390680693</v>
+        <v>790.4452416465681</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>379.4593368569605</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
@@ -4567,19 +4567,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U5" t="n">
-        <v>2388.358616186807</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="V5" t="n">
-        <v>2139.480975254749</v>
+        <v>1936.146930626913</v>
       </c>
       <c r="W5" t="n">
-        <v>2139.480975254749</v>
+        <v>1936.146930626913</v>
       </c>
       <c r="X5" t="n">
-        <v>2139.480975254749</v>
+        <v>1936.146930626913</v>
       </c>
       <c r="Y5" t="n">
-        <v>1749.341643278937</v>
+        <v>1546.007598651101</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4658,31 +4658,31 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>289.0740493317991</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="C7" t="n">
-        <v>120.1378664038922</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="D7" t="n">
-        <v>120.1378664038922</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="E7" t="n">
-        <v>120.1378664038922</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="F7" t="n">
-        <v>120.1378664038922</v>
+        <v>326.5545485026372</v>
       </c>
       <c r="G7" t="n">
-        <v>120.1378664038922</v>
+        <v>157.5547482409696</v>
       </c>
       <c r="H7" t="n">
-        <v>120.1378664038922</v>
+        <v>157.5547482409696</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>698.7120650600561</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="W7" t="n">
-        <v>698.7120650600561</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="X7" t="n">
-        <v>470.7225141620388</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="Y7" t="n">
-        <v>470.7225141620388</v>
+        <v>473.4444960005476</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1363.553390680693</v>
+        <v>1679.782215419422</v>
       </c>
       <c r="C8" t="n">
-        <v>1363.553390680693</v>
+        <v>1679.782215419422</v>
       </c>
       <c r="D8" t="n">
-        <v>1363.553390680693</v>
+        <v>1679.782215419422</v>
       </c>
       <c r="E8" t="n">
-        <v>1363.553390680693</v>
+        <v>1293.993962821178</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>883.00805803157</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>465.0442499297569</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>137.8495299657598</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
@@ -4810,7 +4810,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2443.387305656313</v>
       </c>
       <c r="V8" t="n">
-        <v>2476.387644276009</v>
+        <v>2443.387305656313</v>
       </c>
       <c r="W8" t="n">
-        <v>2123.618989005894</v>
+        <v>2443.387305656313</v>
       </c>
       <c r="X8" t="n">
-        <v>1750.153230744814</v>
+        <v>2069.921547395234</v>
       </c>
       <c r="Y8" t="n">
-        <v>1750.153230744814</v>
+        <v>1679.782215419422</v>
       </c>
     </row>
     <row r="9">
@@ -4880,7 +4880,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4895,7 +4895,7 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>249.7161456655658</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C10" t="n">
-        <v>249.7161456655658</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D10" t="n">
-        <v>99.59950625323012</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E10" t="n">
-        <v>99.59950625323012</v>
+        <v>369.8327295799423</v>
       </c>
       <c r="F10" t="n">
-        <v>99.59950625323012</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4983,31 +4983,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>477.0243329969641</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>249.7161456655658</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>249.7161456655658</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>249.7161456655658</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>249.7161456655658</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>249.7161456655658</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>249.7161456655658</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5017,31 +5017,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
         <v>889.2841917514082</v>
@@ -5068,25 +5068,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
         <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5120,28 +5120,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277032</v>
       </c>
       <c r="L12" t="n">
-        <v>1288.32563221405</v>
+        <v>534.5429807341671</v>
       </c>
       <c r="M12" t="n">
-        <v>1711.385417156675</v>
+        <v>1016.813592216476</v>
       </c>
       <c r="N12" t="n">
-        <v>2041.248044820708</v>
+        <v>1346.676219880509</v>
       </c>
       <c r="O12" t="n">
-        <v>2320.788110039405</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P12" t="n">
-        <v>2525.810590821615</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1141.200876391121</v>
+        <v>213.9110074201014</v>
       </c>
       <c r="C13" t="n">
-        <v>972.2646934632137</v>
+        <v>213.9110074201014</v>
       </c>
       <c r="D13" t="n">
-        <v>822.1480540508779</v>
+        <v>213.9110074201014</v>
       </c>
       <c r="E13" t="n">
-        <v>674.2349604684848</v>
+        <v>213.9110074201014</v>
       </c>
       <c r="F13" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5202,19 +5202,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5223,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1387.841167119728</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U13" t="n">
-        <v>1387.841167119728</v>
+        <v>986.0022165609662</v>
       </c>
       <c r="V13" t="n">
-        <v>1387.841167119728</v>
+        <v>731.3177283550793</v>
       </c>
       <c r="W13" t="n">
-        <v>1387.841167119728</v>
+        <v>441.9005583181187</v>
       </c>
       <c r="X13" t="n">
-        <v>1387.841167119728</v>
+        <v>213.9110074201014</v>
       </c>
       <c r="Y13" t="n">
-        <v>1322.84934122136</v>
+        <v>213.9110074201014</v>
       </c>
     </row>
     <row r="14">
@@ -5254,7 +5254,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5263,25 +5263,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5290,16 +5290,16 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R14" t="n">
         <v>4860.854573014292</v>
@@ -5314,16 +5314,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5357,28 +5357,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277032</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341671</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643587</v>
+        <v>1247.466478653858</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918009</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136706</v>
       </c>
       <c r="P15" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>675.0071030383442</v>
+        <v>268.6754855415405</v>
       </c>
       <c r="C16" t="n">
-        <v>675.0071030383442</v>
+        <v>268.6754855415405</v>
       </c>
       <c r="D16" t="n">
-        <v>527.3450129705744</v>
+        <v>268.6754855415405</v>
       </c>
       <c r="E16" t="n">
-        <v>527.3450129705744</v>
+        <v>268.6754855415405</v>
       </c>
       <c r="F16" t="n">
-        <v>527.3450129705744</v>
+        <v>121.7855380436301</v>
       </c>
       <c r="G16" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5439,19 +5439,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
@@ -5460,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T16" t="n">
-        <v>964.135741824786</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U16" t="n">
-        <v>675.0071030383442</v>
+        <v>786.0822064765184</v>
       </c>
       <c r="V16" t="n">
-        <v>675.0071030383442</v>
+        <v>786.0822064765184</v>
       </c>
       <c r="W16" t="n">
-        <v>675.0071030383442</v>
+        <v>496.6650364395578</v>
       </c>
       <c r="X16" t="n">
-        <v>675.0071030383442</v>
+        <v>268.6754855415405</v>
       </c>
       <c r="Y16" t="n">
-        <v>675.0071030383442</v>
+        <v>268.6754855415405</v>
       </c>
     </row>
     <row r="17">
@@ -5506,13 +5506,13 @@
         <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H17" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
         <v>365.8813331823785</v>
@@ -5524,19 +5524,19 @@
         <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014292</v>
@@ -5612,10 +5612,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
@@ -5700,25 +5700,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1493.756945976139</v>
       </c>
       <c r="T19" t="n">
-        <v>1275.130855347408</v>
+        <v>1269.971530765645</v>
       </c>
       <c r="U19" t="n">
-        <v>986.0022165609664</v>
+        <v>980.8428919792032</v>
       </c>
       <c r="V19" t="n">
-        <v>731.3177283550796</v>
+        <v>726.1584037733163</v>
       </c>
       <c r="W19" t="n">
-        <v>441.900558318119</v>
+        <v>436.7412337363557</v>
       </c>
       <c r="X19" t="n">
-        <v>213.9110074201016</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
     </row>
     <row r="20">
@@ -5728,34 +5728,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805476</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5764,40 +5764,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5828,7 +5828,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
         <v>263.5382936126482</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3865.493026375033</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>3865.493026375033</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>3865.493026375033</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>3717.579932792639</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>3570.689985294729</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>3570.689985294729</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>3570.689985294729</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>4749.779469576119</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>4549.859459491671</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>4549.859459491671</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U22" t="n">
-        <v>4495.923621246819</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V22" t="n">
-        <v>4495.923621246819</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W22" t="n">
-        <v>4495.923621246819</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X22" t="n">
-        <v>4267.934070348802</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
-        <v>4047.141491205272</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5965,37 +5965,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515098</v>
@@ -6004,7 +6004,7 @@
         <v>3183.709822619129</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P23" t="n">
         <v>4454.632848899128</v>
@@ -6016,25 +6016,25 @@
         <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6065,7 +6065,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
         <v>263.5382936126482</v>
@@ -6077,7 +6077,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
         <v>1558.376451307619</v>
@@ -6086,10 +6086,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>644.700260475621</v>
+        <v>879.2482765610114</v>
       </c>
       <c r="C25" t="n">
-        <v>475.7640775477141</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="D25" t="n">
-        <v>475.7640775477141</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E25" t="n">
-        <v>475.7640775477141</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F25" t="n">
-        <v>475.7640775477141</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G25" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6177,22 +6177,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U25" t="n">
-        <v>1275.130855347408</v>
+        <v>1350.313911428212</v>
       </c>
       <c r="V25" t="n">
-        <v>1275.130855347408</v>
+        <v>1350.313911428212</v>
       </c>
       <c r="W25" t="n">
-        <v>1275.130855347408</v>
+        <v>1060.896741391251</v>
       </c>
       <c r="X25" t="n">
-        <v>1047.141304449391</v>
+        <v>1060.896741391251</v>
       </c>
       <c r="Y25" t="n">
-        <v>826.3487253058607</v>
+        <v>1060.896741391251</v>
       </c>
     </row>
     <row r="26">
@@ -6205,7 +6205,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
         <v>1701.09316900344</v>
@@ -6214,19 +6214,19 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J26" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
         <v>889.2841917514083</v>
@@ -6235,7 +6235,7 @@
         <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N26" t="n">
         <v>3183.709822619127</v>
@@ -6244,31 +6244,31 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6293,16 +6293,16 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J27" t="n">
         <v>263.5382936126482</v>
@@ -6314,7 +6314,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
         <v>1558.376451307619</v>
@@ -6323,10 +6323,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6411,7 +6411,7 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T28" t="n">
         <v>1158.436939387592</v>
@@ -6426,10 +6426,10 @@
         <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="29">
@@ -6439,7 +6439,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
@@ -6448,16 +6448,16 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
@@ -6466,7 +6466,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6481,7 +6481,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.62743720783</v>
@@ -6499,16 +6499,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6560,10 +6560,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028584</v>
+        <v>410.8883413288165</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028584</v>
+        <v>410.8883413288165</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028584</v>
+        <v>410.8883413288165</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028584</v>
+        <v>262.9752477464234</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028584</v>
+        <v>116.0853002485131</v>
       </c>
       <c r="G31" t="n">
         <v>97.21709146028584</v>
@@ -6648,25 +6648,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1382.222354598086</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U31" t="n">
-        <v>869.3083006011506</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V31" t="n">
-        <v>614.6238123952637</v>
+        <v>820.5263570570736</v>
       </c>
       <c r="W31" t="n">
-        <v>325.2066423583032</v>
+        <v>820.5263570570736</v>
       </c>
       <c r="X31" t="n">
-        <v>97.21709146028584</v>
+        <v>592.5368061590563</v>
       </c>
       <c r="Y31" t="n">
-        <v>97.21709146028584</v>
+        <v>592.5368061590563</v>
       </c>
     </row>
     <row r="32">
@@ -6691,10 +6691,10 @@
         <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822458</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028562</v>
@@ -6709,16 +6709,16 @@
         <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
         <v>4801.62743720783</v>
@@ -6797,10 +6797,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2358.217138262064</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6834,7 +6834,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.21709146028584</v>
+        <v>263.2449295548433</v>
       </c>
       <c r="C34" t="n">
         <v>97.21709146028584</v>
@@ -6885,25 +6885,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1382.222354598086</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>1158.436939387592</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U34" t="n">
-        <v>869.3083006011506</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V34" t="n">
-        <v>614.6238123952637</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W34" t="n">
-        <v>325.2066423583032</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X34" t="n">
-        <v>97.21709146028584</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="Y34" t="n">
-        <v>97.21709146028584</v>
+        <v>444.8933943850831</v>
       </c>
     </row>
     <row r="35">
@@ -6913,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155889</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6961,7 +6961,7 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
@@ -6973,16 +6973,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -6992,16 +6992,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>987.4312590525784</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C36" t="n">
-        <v>812.9782297714514</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D36" t="n">
-        <v>664.0438201102002</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E36" t="n">
-        <v>504.8063651047446</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
         <v>358.2718071316295</v>
@@ -7013,7 +7013,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
         <v>263.5382936126482</v>
@@ -7034,10 +7034,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7052,7 +7052,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V36" t="n">
-        <v>1825.495751771335</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W36" t="n">
         <v>1571.258395043133</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>726.8250614170374</v>
+        <v>330.8254548799443</v>
       </c>
       <c r="C37" t="n">
-        <v>557.8888784891305</v>
+        <v>330.8254548799443</v>
       </c>
       <c r="D37" t="n">
-        <v>407.7722390767948</v>
+        <v>330.8254548799443</v>
       </c>
       <c r="E37" t="n">
-        <v>259.8591454944017</v>
+        <v>330.8254548799443</v>
       </c>
       <c r="F37" t="n">
-        <v>112.9691979964913</v>
+        <v>330.8254548799443</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028589</v>
+        <v>330.8254548799443</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028589</v>
+        <v>180.4074464278876</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7119,28 +7119,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S37" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T37" t="n">
-        <v>1498.916270557902</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U37" t="n">
-        <v>1498.916270557902</v>
+        <v>874.9271131227918</v>
       </c>
       <c r="V37" t="n">
-        <v>1244.231782352015</v>
+        <v>620.2426249169049</v>
       </c>
       <c r="W37" t="n">
-        <v>954.8146123150548</v>
+        <v>330.8254548799443</v>
       </c>
       <c r="X37" t="n">
-        <v>726.8250614170374</v>
+        <v>330.8254548799443</v>
       </c>
       <c r="Y37" t="n">
-        <v>726.8250614170374</v>
+        <v>330.8254548799443</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155889</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
         <v>488.193237080547</v>
@@ -7171,13 +7171,13 @@
         <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7198,28 +7198,28 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7229,16 +7229,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>987.4312590525784</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C39" t="n">
-        <v>812.9782297714514</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D39" t="n">
-        <v>664.0438201102002</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E39" t="n">
-        <v>504.8063651047446</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
         <v>358.2718071316295</v>
@@ -7250,7 +7250,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
         <v>263.5382936126482</v>
@@ -7289,7 +7289,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V39" t="n">
-        <v>1825.495751771335</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W39" t="n">
         <v>1571.258395043133</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>377.6878657662453</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7359,25 +7359,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U40" t="n">
-        <v>1209.787631771461</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V40" t="n">
-        <v>955.1031435655738</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W40" t="n">
-        <v>665.6859735286132</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>665.6859735286132</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y40" t="n">
-        <v>559.336330596485</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823788</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7487,28 +7487,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>1288.32563221405</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1595.645765494011</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7545,40 +7545,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028589</v>
+        <v>216.9038434870658</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028589</v>
+        <v>216.9038434870658</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7587,34 +7587,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1158.436939387592</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U43" t="n">
-        <v>869.3083006011507</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V43" t="n">
-        <v>614.6238123952638</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W43" t="n">
-        <v>325.2066423583032</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X43" t="n">
-        <v>97.21709146028589</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.21709146028589</v>
+        <v>216.9038434870658</v>
       </c>
     </row>
     <row r="44">
@@ -7639,10 +7639,10 @@
         <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822458</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028562</v>
@@ -7657,19 +7657,19 @@
         <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
@@ -7730,25 +7730,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>488.2756279992598</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>735.0407559057238</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1503.408902298185</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>1833.271529962218</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>2112.811595180915</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G46" t="n">
         <v>97.21709146028584</v>
@@ -7830,28 +7830,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557902</v>
+        <v>1439.9246662551</v>
       </c>
       <c r="S46" t="n">
-        <v>1298.996260473455</v>
+        <v>1439.9246662551</v>
       </c>
       <c r="T46" t="n">
-        <v>1075.21084526296</v>
+        <v>1439.9246662551</v>
       </c>
       <c r="U46" t="n">
-        <v>869.3083006011506</v>
+        <v>1439.9246662551</v>
       </c>
       <c r="V46" t="n">
-        <v>614.6238123952637</v>
+        <v>1185.240178049213</v>
       </c>
       <c r="W46" t="n">
-        <v>325.2066423583032</v>
+        <v>895.8230080122524</v>
       </c>
       <c r="X46" t="n">
-        <v>97.21709146028584</v>
+        <v>667.8334571142351</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.21709146028584</v>
+        <v>447.040877970705</v>
       </c>
     </row>
   </sheetData>
@@ -8075,10 +8075,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>199.0269485415596</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8306,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8543,10 +8543,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783523</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8768,31 +8768,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>116.9087390531963</v>
+        <v>176.7176547498459</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>45.52166981132082</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8950,7 +8950,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298298</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9005,31 +9005,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>409.7003683229593</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>277.6717966208064</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>45.52166981132082</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9409,7 +9409,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N20" t="n">
         <v>437.3469244119842</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9646,7 +9646,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928336</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
         <v>437.3469244119842</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9883,7 +9883,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928317</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>277.6717966208067</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>180.0237016735871</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298479</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298479</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11144,25 +11144,25 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>127.6461250100645</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11378,13 +11378,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>76.43196988338559</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23314,7 +23314,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>1.080024958355352e-12</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>29.89407122271386</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>154.2427457127109</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23658,22 +23658,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>2.43000385112029</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>142.1708063458668</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23715,10 +23715,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23910,7 +23910,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,7 +23940,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>192.8130786476576</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>103.0576765518772</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24135,10 +24135,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
@@ -24147,7 +24147,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>232.8408725361741</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>51.06512606863178</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24417,22 +24417,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>139.1210168601835</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24651,10 +24651,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T28" t="n">
-        <v>82.39383318338548</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24846,13 +24846,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>147.8140417630327</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
@@ -24888,19 +24888,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25074,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>2.879261385015923</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25125,10 +25125,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>82.39383318338545</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25140,10 +25140,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25314,25 +25314,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>150.8989829925342</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>28.06079404634629</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25548,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25569,7 +25569,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,10 +25599,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25614,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>113.2985068492879</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25791,7 +25791,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>30.12558851170024</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25836,10 +25836,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>82.39383318338525</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26037,7 +26037,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>148.9138283675361</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>51.56266414401838</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>82.39383318338557</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>888779.6832846864</v>
+        <v>888779.6832846862</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>888779.6832846864</v>
+        <v>888779.6832846863</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>888779.6832846864</v>
+        <v>888779.6832846863</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>888779.6832846864</v>
+        <v>888779.6832846863</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>888779.6832846863</v>
+        <v>888779.6832846862</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>888779.6832846863</v>
+        <v>888779.6832846862</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>888779.6832846862</v>
+        <v>888779.6832846864</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>888779.6832846863</v>
+        <v>888779.6832846864</v>
       </c>
     </row>
   </sheetData>
@@ -26316,46 +26316,46 @@
         <v>533677.1504117841</v>
       </c>
       <c r="C2" t="n">
-        <v>533677.1504117848</v>
+        <v>533677.1504117844</v>
       </c>
       <c r="D2" t="n">
-        <v>533677.1504117845</v>
+        <v>533677.1504117846</v>
       </c>
       <c r="E2" t="n">
+        <v>508337.7776590217</v>
+      </c>
+      <c r="F2" t="n">
+        <v>508337.7776590217</v>
+      </c>
+      <c r="G2" t="n">
+        <v>508337.7776590215</v>
+      </c>
+      <c r="H2" t="n">
         <v>508337.7776590216</v>
       </c>
-      <c r="F2" t="n">
-        <v>508337.7776590215</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>508337.7776590216</v>
       </c>
-      <c r="H2" t="n">
-        <v>508337.7776590217</v>
-      </c>
-      <c r="I2" t="n">
-        <v>508337.7776590215</v>
-      </c>
       <c r="J2" t="n">
-        <v>508337.7776590217</v>
+        <v>508337.7776590214</v>
       </c>
       <c r="K2" t="n">
-        <v>508337.7776590216</v>
+        <v>508337.7776590218</v>
       </c>
       <c r="L2" t="n">
         <v>508337.7776590216</v>
       </c>
       <c r="M2" t="n">
-        <v>508337.7776590218</v>
+        <v>508337.7776590217</v>
       </c>
       <c r="N2" t="n">
-        <v>508337.7776590217</v>
+        <v>508337.7776590215</v>
       </c>
       <c r="O2" t="n">
+        <v>508337.7776590216</v>
+      </c>
+      <c r="P2" t="n">
         <v>508337.7776590215</v>
-      </c>
-      <c r="P2" t="n">
-        <v>508337.7776590216</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338373</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.540129233035259e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26435,13 +26435,13 @@
         <v>29303.54555230233</v>
       </c>
       <c r="H4" t="n">
-        <v>29303.54555230234</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="I4" t="n">
-        <v>29303.54555230234</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="J4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230232</v>
       </c>
       <c r="K4" t="n">
         <v>29303.54555230233</v>
@@ -26450,10 +26450,10 @@
         <v>29303.54555230233</v>
       </c>
       <c r="M4" t="n">
-        <v>29303.54555230235</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="N4" t="n">
-        <v>29303.54555230235</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="O4" t="n">
         <v>29303.54555230233</v>
@@ -26481,19 +26481,19 @@
         <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="K5" t="n">
         <v>91987.32594871662</v>
@@ -26502,13 +26502,13 @@
         <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
         <v>91987.32594871662</v>
@@ -26524,46 +26524,46 @@
         <v>-313640.584187996</v>
       </c>
       <c r="C6" t="n">
-        <v>276327.2950265491</v>
+        <v>276327.2950265488</v>
       </c>
       <c r="D6" t="n">
-        <v>276327.2950265489</v>
+        <v>276327.295026549</v>
       </c>
       <c r="E6" t="n">
-        <v>-138113.1303188935</v>
+        <v>-139087.7215786149</v>
       </c>
       <c r="F6" t="n">
-        <v>387046.9061580026</v>
+        <v>386072.3148982811</v>
       </c>
       <c r="G6" t="n">
-        <v>387046.9061580026</v>
+        <v>386072.3148982809</v>
       </c>
       <c r="H6" t="n">
-        <v>387046.9061580027</v>
+        <v>386072.314898281</v>
       </c>
       <c r="I6" t="n">
-        <v>387046.9061580026</v>
+        <v>386072.314898281</v>
       </c>
       <c r="J6" t="n">
-        <v>210623.68696541</v>
+        <v>209649.095705688</v>
       </c>
       <c r="K6" t="n">
-        <v>387046.9061580026</v>
+        <v>386072.3148982812</v>
       </c>
       <c r="L6" t="n">
-        <v>387046.9061580026</v>
+        <v>386072.314898281</v>
       </c>
       <c r="M6" t="n">
-        <v>252245.8909241655</v>
+        <v>251271.2996644439</v>
       </c>
       <c r="N6" t="n">
-        <v>387046.9061580027</v>
+        <v>386072.3148982809</v>
       </c>
       <c r="O6" t="n">
-        <v>387046.9061580023</v>
+        <v>386072.314898281</v>
       </c>
       <c r="P6" t="n">
-        <v>387046.9061580028</v>
+        <v>386072.3148982809</v>
       </c>
     </row>
   </sheetData>
@@ -26740,16 +26740,16 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541002</v>
@@ -26758,10 +26758,10 @@
         <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
         <v>830.3824054541002</v>
@@ -26776,7 +26776,7 @@
         <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541002</v>
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26822,13 +26822,13 @@
         <v>1215.213643253573</v>
       </c>
       <c r="M4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="N4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="O4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="P4" t="n">
         <v>1215.213643253573</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370135</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26998,7 +26998,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545553</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990179</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,13 +27381,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>379.3216775365941</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27399,7 +27399,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27435,19 +27435,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>156.1537029094874</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27539,22 +27539,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>107.5829646831825</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>27.10427099018233</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
@@ -27602,7 +27602,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27615,25 +27615,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>243.4542947794261</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27663,10 +27663,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27675,7 +27675,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>81.36339394739744</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27773,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27785,19 +27785,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>114.6326452431828</v>
+        <v>32.38997303593912</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27833,13 +27833,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27861,7 +27861,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27873,7 +27873,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>68.86383358091989</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27909,19 +27909,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>163.6768287701552</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28013,28 +28013,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>107.5829646831825</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,16 +28055,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>139.3398761877157</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31515,13 +31515,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31539,22 +31539,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31627,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,13 +31697,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31712,7 +31712,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31761,40 +31761,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M11" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31834,10 +31834,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215733</v>
@@ -31846,7 +31846,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M12" t="n">
         <v>452.5584109724845</v>
@@ -31855,10 +31855,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q12" t="n">
         <v>227.9948068710956</v>
@@ -31870,7 +31870,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31916,7 +31916,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31934,7 +31934,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
@@ -31946,10 +31946,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U13" t="n">
         <v>0.08167695791351813</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,34 +32068,34 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q15" t="n">
         <v>227.9948068710956</v>
@@ -32104,10 +32104,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32153,7 +32153,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32168,10 +32168,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
@@ -32180,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32718,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32727,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32736,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32788,7 +32788,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32797,10 +32797,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32815,10 +32815,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32879,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32891,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32955,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32964,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32973,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33025,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33034,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33052,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33116,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,46 +34201,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34286,7 +34286,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34298,10 +34298,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34310,19 +34310,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34795,10 +34795,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35187,10 +35187,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35263,10 +35263,10 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262125</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M11" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490663</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M12" t="n">
-        <v>427.3331161036625</v>
+        <v>487.1420318003121</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507407</v>
       </c>
       <c r="R12" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299105</v>
@@ -35576,7 +35576,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N13" t="n">
         <v>273.2768778056036</v>
@@ -35588,7 +35588,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490663</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734254</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>484.7652115523311</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507407</v>
       </c>
       <c r="R15" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N16" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35980,13 +35980,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36129,7 +36129,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36360,13 +36360,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221127</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36445,22 +36445,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36530,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221109</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36682,22 +36682,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36767,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36928,13 +36928,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37165,13 +37165,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>484.7652115523313</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>268.0367344586612</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970350042</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37402,13 +37402,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970350042</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37782,28 +37782,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,25 +37861,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>620.0980502594836</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>460.8406984080775</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M43" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38098,13 +38098,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>227.0074084713248</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
         <v>333.1945733980128</v>
@@ -38113,13 +38113,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_4_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_4_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1895979.259120704</v>
+        <v>1900918.521969736</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.83780062</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -667,16 +667,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>2.608692535667753</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>177.061428160503</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -706,10 +706,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -816,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>59.66385641544537</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -828,10 +828,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>25.31590541686252</v>
       </c>
     </row>
     <row r="5">
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>233.6257157225927</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -910,7 +910,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>170.3298752413689</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -943,13 +943,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -1053,16 +1053,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>41.03250833502995</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -1074,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>102.5756487563991</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>83.06748266394136</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>104.0001894004429</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1192,7 +1192,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>59.72683757586869</v>
       </c>
       <c r="C10" t="n">
-        <v>59.66385641544537</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1305,7 +1305,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1387,7 +1387,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113166</v>
       </c>
       <c r="I11" t="n">
         <v>81.7791350527408</v>
@@ -1426,7 +1426,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0785952497999</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1536,16 +1536,16 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>115.5269768002174</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1581,7 +1581,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
@@ -1593,10 +1593,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>48.85174888144373</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1672,7 +1672,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784677</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1764,25 +1764,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>24.32276211751082</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1815,16 +1815,16 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>106.2332413438255</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -2013,7 +2013,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>118.4898845065121</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,10 +2052,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>5.107731335945625</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2131,16 +2131,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2244,7 +2244,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2292,7 +2292,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>216.2479102458284</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>143.3158222056515</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2478,19 +2478,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>157.2425576766696</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2532,16 +2532,16 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>147.1163355383938</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U29" t="n">
         <v>251.078595249801</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2958,13 +2958,13 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>18.67952670034493</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3186,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>164.3675597136119</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3198,10 +3198,10 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>119.4042217342637</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3234,19 +3234,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3277,7 +3277,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>411.9645167896915</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3432,19 +3432,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>82.35845141792571</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,25 +3474,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>113.1336596910889</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3714,10 +3714,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>139.1537278750038</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3903,7 +3903,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>118.4898845065121</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
         <v>286.2373523985773</v>
@@ -3963,10 +3963,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>33.35146980185857</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>58.40168825977442</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1366.188433646014</v>
+        <v>1190.010945960184</v>
       </c>
       <c r="C2" t="n">
-        <v>1366.188433646014</v>
+        <v>1190.010945960184</v>
       </c>
       <c r="D2" t="n">
-        <v>1366.188433646014</v>
+        <v>1190.010945960184</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>804.2226933619395</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4330,13 +4330,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4357,25 +4357,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2423.485734520778</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2423.485734520778</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V2" t="n">
-        <v>2092.422847177208</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="W2" t="n">
-        <v>1739.654191907093</v>
+        <v>1563.476704221264</v>
       </c>
       <c r="X2" t="n">
-        <v>1366.188433646014</v>
+        <v>1190.010945960184</v>
       </c>
       <c r="Y2" t="n">
-        <v>1366.188433646014</v>
+        <v>1190.010945960184</v>
       </c>
     </row>
     <row r="3">
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064342</v>
+        <v>520.9088977430002</v>
       </c>
       <c r="C4" t="n">
-        <v>667.8624625746712</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="D4" t="n">
-        <v>517.7458231623355</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E4" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064342</v>
+        <v>702.55736257324</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1159.40775858698</v>
+        <v>1272.344242153658</v>
       </c>
       <c r="C5" t="n">
-        <v>790.4452416465681</v>
+        <v>1272.344242153658</v>
       </c>
       <c r="D5" t="n">
-        <v>790.4452416465681</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E5" t="n">
-        <v>790.4452416465681</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F5" t="n">
-        <v>379.4593368569605</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
         <v>207.4089578252748</v>
@@ -4567,10 +4567,10 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
         <v>881.2824271224076</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2520.971603332393</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2267.209817970484</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V5" t="n">
-        <v>1936.146930626913</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W5" t="n">
-        <v>1936.146930626913</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X5" t="n">
-        <v>1936.146930626913</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="Y5" t="n">
-        <v>1546.007598651101</v>
+        <v>1272.344242153658</v>
       </c>
     </row>
     <row r="6">
@@ -4622,67 +4622,67 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>473.4444960005476</v>
+        <v>686.6820060902423</v>
       </c>
       <c r="C7" t="n">
-        <v>473.4444960005476</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="D7" t="n">
-        <v>473.4444960005476</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E7" t="n">
-        <v>473.4444960005476</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F7" t="n">
-        <v>326.5545485026372</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G7" t="n">
-        <v>157.5547482409696</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>157.5547482409696</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>473.4444960005476</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>473.4444960005476</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>473.4444960005476</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>473.4444960005476</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4780,43 +4780,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1679.782215419422</v>
+        <v>802.0401021781393</v>
       </c>
       <c r="C8" t="n">
-        <v>1679.782215419422</v>
+        <v>433.0775852377275</v>
       </c>
       <c r="D8" t="n">
-        <v>1679.782215419422</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="E8" t="n">
-        <v>1293.993962821178</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F8" t="n">
-        <v>883.00805803157</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>465.0442499297569</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>137.8495299657598</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2537.069705184632</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2537.069705184632</v>
       </c>
       <c r="U8" t="n">
-        <v>2443.387305656313</v>
+        <v>2283.307919822723</v>
       </c>
       <c r="V8" t="n">
-        <v>2443.387305656313</v>
+        <v>1952.245032479153</v>
       </c>
       <c r="W8" t="n">
-        <v>2443.387305656313</v>
+        <v>1952.245032479153</v>
       </c>
       <c r="X8" t="n">
-        <v>2069.921547395234</v>
+        <v>1578.779274218073</v>
       </c>
       <c r="Y8" t="n">
-        <v>1679.782215419422</v>
+        <v>1188.639942242261</v>
       </c>
     </row>
     <row r="9">
@@ -4880,28 +4880,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064342</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C10" t="n">
-        <v>667.8624625746712</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D10" t="n">
-        <v>517.7458231623355</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>369.8327295799423</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="11">
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822463</v>
@@ -5044,7 +5044,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5059,7 +5059,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5074,19 +5074,19 @@
         <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5120,25 +5120,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277032</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341671</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M12" t="n">
-        <v>1016.813592216476</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N12" t="n">
-        <v>1346.676219880509</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O12" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>213.9110074201014</v>
+        <v>395.5481934947356</v>
       </c>
       <c r="C13" t="n">
-        <v>213.9110074201014</v>
+        <v>395.5481934947356</v>
       </c>
       <c r="D13" t="n">
-        <v>213.9110074201014</v>
+        <v>395.5481934947356</v>
       </c>
       <c r="E13" t="n">
-        <v>213.9110074201014</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H13" t="n">
         <v>97.21709146028584</v>
@@ -5229,22 +5229,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>986.0022165609662</v>
+        <v>1209.78763177146</v>
       </c>
       <c r="V13" t="n">
-        <v>731.3177283550793</v>
+        <v>955.1031435655735</v>
       </c>
       <c r="W13" t="n">
-        <v>441.9005583181187</v>
+        <v>665.685973528613</v>
       </c>
       <c r="X13" t="n">
-        <v>213.9110074201014</v>
+        <v>616.3407726382658</v>
       </c>
       <c r="Y13" t="n">
-        <v>213.9110074201014</v>
+        <v>395.5481934947356</v>
       </c>
     </row>
     <row r="14">
@@ -5305,19 +5305,19 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X14" t="n">
         <v>3205.060556590537</v>
@@ -5357,25 +5357,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277032</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341671</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M15" t="n">
-        <v>1247.466478653858</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918009</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136706</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>268.6754855415405</v>
+        <v>692.5547804049818</v>
       </c>
       <c r="C16" t="n">
-        <v>268.6754855415405</v>
+        <v>692.5547804049818</v>
       </c>
       <c r="D16" t="n">
-        <v>268.6754855415405</v>
+        <v>542.438140992646</v>
       </c>
       <c r="E16" t="n">
-        <v>268.6754855415405</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="F16" t="n">
-        <v>121.7855380436301</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H16" t="n">
         <v>97.21709146028584</v>
@@ -5463,25 +5463,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473454</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U16" t="n">
-        <v>786.0822064765184</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V16" t="n">
-        <v>786.0822064765184</v>
+        <v>1391.6099661702</v>
       </c>
       <c r="W16" t="n">
-        <v>496.6650364395578</v>
+        <v>1102.192796133239</v>
       </c>
       <c r="X16" t="n">
-        <v>268.6754855415405</v>
+        <v>874.2032452352215</v>
       </c>
       <c r="Y16" t="n">
-        <v>268.6754855415405</v>
+        <v>874.2032452352215</v>
       </c>
     </row>
     <row r="17">
@@ -5506,37 +5506,37 @@
         <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J17" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014292</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>208.7516828383384</v>
+        <v>216.9038434870658</v>
       </c>
       <c r="C19" t="n">
-        <v>208.7516828383384</v>
+        <v>216.9038434870658</v>
       </c>
       <c r="D19" t="n">
-        <v>208.7516828383384</v>
+        <v>216.9038434870658</v>
       </c>
       <c r="E19" t="n">
-        <v>208.7516828383384</v>
+        <v>216.9038434870658</v>
       </c>
       <c r="F19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
@@ -5700,25 +5700,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1493.756945976139</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1269.971530765645</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U19" t="n">
-        <v>980.8428919792032</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V19" t="n">
-        <v>726.1584037733163</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W19" t="n">
-        <v>436.7412337363557</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X19" t="n">
-        <v>208.7516828383384</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="Y19" t="n">
-        <v>208.7516828383384</v>
+        <v>216.9038434870658</v>
       </c>
     </row>
     <row r="20">
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
         <v>488.193237080547</v>
@@ -5752,10 +5752,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823786</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5764,7 +5764,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5779,25 +5779,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5886,10 +5886,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D22" t="n">
         <v>97.21709146028584</v>
@@ -5940,22 +5940,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.21084526296</v>
+        <v>1080.564027901911</v>
       </c>
       <c r="U22" t="n">
-        <v>786.0822064765186</v>
+        <v>791.4353891154691</v>
       </c>
       <c r="V22" t="n">
-        <v>531.3977182706318</v>
+        <v>536.7509009095822</v>
       </c>
       <c r="W22" t="n">
-        <v>241.9805482336712</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028584</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028584</v>
+        <v>247.3337308726216</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
         <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822459</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6077,7 +6077,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
         <v>1558.376451307619</v>
@@ -6086,10 +6086,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>879.2482765610114</v>
+        <v>256.0479578003561</v>
       </c>
       <c r="C25" t="n">
-        <v>710.3120936331045</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>560.1954542207687</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
         <v>97.21709146028584</v>
@@ -6180,19 +6180,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U25" t="n">
-        <v>1350.313911428212</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V25" t="n">
-        <v>1350.313911428212</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W25" t="n">
-        <v>1060.896741391251</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X25" t="n">
-        <v>1060.896741391251</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="Y25" t="n">
-        <v>1060.896741391251</v>
+        <v>437.6964226305959</v>
       </c>
     </row>
     <row r="26">
@@ -6214,28 +6214,28 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
         <v>3183.709822619127</v>
@@ -6250,13 +6250,13 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
         <v>4262.3578574653</v>
@@ -6293,16 +6293,16 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
         <v>263.5382936126482</v>
@@ -6314,7 +6314,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
         <v>1558.376451307619</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6426,10 +6426,10 @@
         <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6463,10 +6463,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>410.8883413288165</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>410.8883413288165</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>410.8883413288165</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>262.9752477464234</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>116.0853002485131</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
         <v>97.21709146028584</v>
@@ -6648,25 +6648,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T31" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U31" t="n">
-        <v>1075.21084526296</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V31" t="n">
-        <v>820.5263570570736</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W31" t="n">
-        <v>820.5263570570736</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
-        <v>592.5368061590563</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y31" t="n">
-        <v>592.5368061590563</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6691,10 +6691,10 @@
         <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H32" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028562</v>
@@ -6709,19 +6709,19 @@
         <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014292</v>
@@ -6797,10 +6797,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2358.217138262064</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>263.2449295548433</v>
+        <v>364.7173639423009</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028584</v>
+        <v>364.7173639423009</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028584</v>
+        <v>364.7173639423009</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028584</v>
+        <v>364.7173639423009</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028584</v>
+        <v>217.8274164443906</v>
       </c>
       <c r="G34" t="n">
         <v>97.21709146028584</v>
@@ -6882,28 +6882,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S34" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T34" t="n">
-        <v>1498.916270557902</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U34" t="n">
-        <v>1209.787631771461</v>
+        <v>874.9271131227918</v>
       </c>
       <c r="V34" t="n">
-        <v>955.1031435655738</v>
+        <v>874.9271131227918</v>
       </c>
       <c r="W34" t="n">
-        <v>665.6859735286132</v>
+        <v>585.5099430858311</v>
       </c>
       <c r="X34" t="n">
-        <v>665.6859735286132</v>
+        <v>585.5099430858311</v>
       </c>
       <c r="Y34" t="n">
-        <v>444.8933943850831</v>
+        <v>364.7173639423009</v>
       </c>
     </row>
     <row r="35">
@@ -6913,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6955,10 +6955,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014292</v>
@@ -6973,16 +6973,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>330.8254548799443</v>
+        <v>563.7235151749151</v>
       </c>
       <c r="C37" t="n">
-        <v>330.8254548799443</v>
+        <v>563.7235151749151</v>
       </c>
       <c r="D37" t="n">
-        <v>330.8254548799443</v>
+        <v>563.7235151749151</v>
       </c>
       <c r="E37" t="n">
-        <v>330.8254548799443</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F37" t="n">
-        <v>330.8254548799443</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G37" t="n">
-        <v>330.8254548799443</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H37" t="n">
-        <v>180.4074464278876</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
         <v>97.21709146028584</v>
@@ -7122,25 +7122,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S37" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T37" t="n">
-        <v>1164.055751909234</v>
+        <v>1073.644733104887</v>
       </c>
       <c r="U37" t="n">
-        <v>874.9271131227918</v>
+        <v>784.5160943184452</v>
       </c>
       <c r="V37" t="n">
-        <v>620.2426249169049</v>
+        <v>784.5160943184452</v>
       </c>
       <c r="W37" t="n">
-        <v>330.8254548799443</v>
+        <v>784.5160943184452</v>
       </c>
       <c r="X37" t="n">
-        <v>330.8254548799443</v>
+        <v>784.5160943184452</v>
       </c>
       <c r="Y37" t="n">
-        <v>330.8254548799443</v>
+        <v>563.7235151749151</v>
       </c>
     </row>
     <row r="38">
@@ -7153,34 +7153,34 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
@@ -7192,7 +7192,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
         <v>4801.627437207829</v>
@@ -7207,16 +7207,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7362,7 +7362,7 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U40" t="n">
         <v>869.3083006011506</v>
@@ -7545,10 +7545,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>216.9038434870658</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>216.9038434870658</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
         <v>97.21709146028584</v>
@@ -7593,28 +7593,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T43" t="n">
-        <v>1498.916270557902</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U43" t="n">
-        <v>1209.787631771461</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V43" t="n">
-        <v>955.1031435655738</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W43" t="n">
-        <v>665.6859735286132</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="X43" t="n">
-        <v>437.6964226305959</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y43" t="n">
-        <v>216.9038434870658</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7639,10 +7639,10 @@
         <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H44" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028562</v>
@@ -7651,25 +7651,25 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
         <v>97.21709146028584</v>
@@ -7830,28 +7830,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1439.9246662551</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1439.9246662551</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="T46" t="n">
-        <v>1439.9246662551</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U46" t="n">
-        <v>1439.9246662551</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V46" t="n">
-        <v>1185.240178049213</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W46" t="n">
-        <v>895.8230080122524</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X46" t="n">
-        <v>667.8334571142351</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y46" t="n">
-        <v>447.040877970705</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719084</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8546,13 +8546,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>274.4264991783523</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,28 +8768,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>176.7176547498459</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776759</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>34.7842838544522</v>
@@ -9005,28 +9005,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>409.7003683229593</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>288.4091825776759</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>34.7842838544522</v>
@@ -9409,7 +9409,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
         <v>437.3469244119842</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9883,7 +9883,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928317</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q33" t="n">
-        <v>180.0237016735871</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -23275,7 +23275,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23314,7 +23314,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>1.080024958355352e-12</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23424,16 +23424,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>29.89407122271386</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23469,7 +23469,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23481,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>176.8579065075934</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23560,7 +23560,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23652,25 +23652,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>142.1708063458668</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23703,16 +23703,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>145.9044019800025</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23901,7 +23901,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>26.93116351641913</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
@@ -23910,7 +23910,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,10 +23940,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>192.8130786476576</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24132,7 +24132,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24180,7 +24180,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>5.299650812560827</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>82.39383318338568</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24366,19 +24366,19 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>10.00426342195826</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
@@ -24420,16 +24420,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>139.1210168601835</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24846,13 +24846,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>147.8140417630327</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
@@ -24888,19 +24888,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25074,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>2.879261385015923</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25086,10 +25086,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>47.08934672911388</v>
       </c>
       <c r="H34" t="n">
         <v>148.9138283675361</v>
@@ -25122,19 +25122,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25320,19 +25320,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>28.06079404634629</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,25 +25362,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>108.4139013673003</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25602,10 +25602,10 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>82.39383318338548</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25791,7 +25791,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>30.12558851170024</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25851,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>192.3581855871786</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26037,7 +26037,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
         <v>148.9138283675361</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>51.56266414401838</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>79.43092547709136</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>888779.6832846862</v>
+        <v>888779.6832846863</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>888779.6832846863</v>
+        <v>888779.6832846861</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>888779.6832846863</v>
+        <v>888779.6832846862</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>888779.6832846862</v>
+        <v>888779.6832846863</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>888779.6832846862</v>
+        <v>888779.6832846864</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>888779.6832846863</v>
+        <v>888779.6832846864</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>888779.6832846864</v>
+        <v>888779.6832846863</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>888779.6832846864</v>
+        <v>888779.6832846863</v>
       </c>
     </row>
   </sheetData>
@@ -26313,31 +26313,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>533677.1504117841</v>
+        <v>533677.1504117844</v>
       </c>
       <c r="C2" t="n">
-        <v>533677.1504117844</v>
+        <v>533677.1504117848</v>
       </c>
       <c r="D2" t="n">
-        <v>533677.1504117846</v>
+        <v>533677.1504117848</v>
       </c>
       <c r="E2" t="n">
-        <v>508337.7776590217</v>
+        <v>508337.7776590218</v>
       </c>
       <c r="F2" t="n">
-        <v>508337.7776590217</v>
+        <v>508337.777659022</v>
       </c>
       <c r="G2" t="n">
-        <v>508337.7776590215</v>
+        <v>508337.7776590216</v>
       </c>
       <c r="H2" t="n">
         <v>508337.7776590216</v>
       </c>
       <c r="I2" t="n">
+        <v>508337.7776590215</v>
+      </c>
+      <c r="J2" t="n">
         <v>508337.7776590216</v>
-      </c>
-      <c r="J2" t="n">
-        <v>508337.7776590214</v>
       </c>
       <c r="K2" t="n">
         <v>508337.7776590218</v>
@@ -26346,16 +26346,16 @@
         <v>508337.7776590216</v>
       </c>
       <c r="M2" t="n">
-        <v>508337.7776590217</v>
+        <v>508337.7776590216</v>
       </c>
       <c r="N2" t="n">
-        <v>508337.7776590215</v>
+        <v>508337.7776590216</v>
       </c>
       <c r="O2" t="n">
         <v>508337.7776590216</v>
       </c>
       <c r="P2" t="n">
-        <v>508337.7776590215</v>
+        <v>508337.7776590216</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768959</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26441,7 +26441,7 @@
         <v>29303.54555230233</v>
       </c>
       <c r="J4" t="n">
-        <v>29303.54555230232</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="K4" t="n">
         <v>29303.54555230233</v>
@@ -26490,10 +26490,10 @@
         <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
         <v>91987.32594871662</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-313640.584187996</v>
+        <v>-313640.5841879958</v>
       </c>
       <c r="C6" t="n">
-        <v>276327.2950265488</v>
+        <v>276327.2950265491</v>
       </c>
       <c r="D6" t="n">
-        <v>276327.295026549</v>
+        <v>276327.2950265491</v>
       </c>
       <c r="E6" t="n">
-        <v>-139087.7215786149</v>
+        <v>-138210.5894448652</v>
       </c>
       <c r="F6" t="n">
-        <v>386072.3148982811</v>
+        <v>386949.4470320308</v>
       </c>
       <c r="G6" t="n">
-        <v>386072.3148982809</v>
+        <v>386949.4470320305</v>
       </c>
       <c r="H6" t="n">
-        <v>386072.314898281</v>
+        <v>386949.4470320305</v>
       </c>
       <c r="I6" t="n">
-        <v>386072.314898281</v>
+        <v>386949.4470320304</v>
       </c>
       <c r="J6" t="n">
-        <v>209649.095705688</v>
+        <v>210526.2278394375</v>
       </c>
       <c r="K6" t="n">
-        <v>386072.3148982812</v>
+        <v>386949.4470320307</v>
       </c>
       <c r="L6" t="n">
-        <v>386072.314898281</v>
+        <v>386949.4470320304</v>
       </c>
       <c r="M6" t="n">
-        <v>251271.2996644439</v>
+        <v>252148.4317981933</v>
       </c>
       <c r="N6" t="n">
-        <v>386072.3148982809</v>
+        <v>386949.4470320304</v>
       </c>
       <c r="O6" t="n">
-        <v>386072.314898281</v>
+        <v>386949.4470320305</v>
       </c>
       <c r="P6" t="n">
-        <v>386072.3148982809</v>
+        <v>386949.4470320305</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>377.7436642170867</v>
+      </c>
+      <c r="C3" t="n">
         <v>377.7436642170866</v>
       </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>377.7436642170867</v>
-      </c>
-      <c r="D3" t="n">
-        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541001</v>
@@ -26758,10 +26758,10 @@
         <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
         <v>830.3824054541002</v>
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370135</v>
+        <v>452.6387412370134</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27387,16 +27387,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>379.3216775365941</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>229.8146175812084</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27536,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>107.5829646831825</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27548,10 +27548,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>193.2687479352323</v>
       </c>
     </row>
     <row r="5">
@@ -27615,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>121.0573258980903</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27630,7 +27630,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>243.4542947794261</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -27663,13 +27663,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27773,16 +27773,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>138.7994718469074</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27794,10 +27794,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>32.38997303593912</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27833,7 +27833,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>68.86383358091989</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,10 +27900,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>70.41552340852864</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -27912,7 +27912,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -28010,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>120.1051426060686</v>
       </c>
       <c r="C10" t="n">
-        <v>107.5829646831825</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28025,16 +28025,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31515,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,22 +31697,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32718,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32727,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32736,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32788,7 +32788,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32797,10 +32797,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32815,10 +32815,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32879,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32891,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32955,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32964,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32973,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33025,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33034,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33052,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33116,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35263,16 +35263,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>325.1459203262125</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490663</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
         <v>249.2577049560242</v>
       </c>
       <c r="M12" t="n">
-        <v>487.1420318003121</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N12" t="n">
         <v>333.1945733980127</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092005</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507407</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490663</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
         <v>249.2577049560242</v>
       </c>
       <c r="M15" t="n">
-        <v>720.1247453734254</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O15" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092005</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507407</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -36129,7 +36129,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36360,13 +36360,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36445,22 +36445,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36530,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221109</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36682,16 +36682,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36767,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -37165,13 +37165,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714618</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q33" t="n">
-        <v>268.0367344586612</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
